--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -1,37 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="720" yWindow="855" windowWidth="9015" windowHeight="8100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>axis</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Point_1</t>
+  </si>
+  <si>
+    <t>Point_2</t>
+  </si>
+  <si>
+    <t>Point_3</t>
+  </si>
+  <si>
+    <t>Point_4</t>
+  </si>
+  <si>
+    <t>Point_5</t>
+  </si>
+  <si>
+    <t>Point_6</t>
+  </si>
+  <si>
+    <t>Point_7</t>
+  </si>
+  <si>
+    <t>Point_8</t>
+  </si>
+  <si>
+    <t>Point_9</t>
+  </si>
+  <si>
+    <t>Point_10</t>
+  </si>
+  <si>
+    <t>Point_11</t>
+  </si>
+  <si>
+    <t>Point_12</t>
+  </si>
+  <si>
+    <t>Point_13</t>
+  </si>
+  <si>
+    <t>Point_14</t>
+  </si>
+  <si>
+    <t>Point_15</t>
+  </si>
+  <si>
+    <t>Point_16</t>
+  </si>
+  <si>
+    <t>Point_17</t>
+  </si>
+  <si>
+    <t>Point_18</t>
+  </si>
+  <si>
+    <t>Point_19</t>
+  </si>
+  <si>
+    <t>Point_20</t>
+  </si>
+  <si>
+    <t>Axis_2</t>
+  </si>
+  <si>
+    <t>Axis_3</t>
+  </si>
+  <si>
+    <t>Axis_1</t>
+  </si>
+  <si>
+    <t>Line_7</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +138,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,34 +462,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7">
+        <v>-1050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>-950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7">
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7">
+        <v>-550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="855" windowWidth="9015" windowHeight="8100"/>
+    <workbookView xWindow="7770" yWindow="495" windowWidth="11310" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>Axis_1</t>
   </si>
   <si>
-    <t>Line_7</t>
+    <t>Line_7 Point_15</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -165,7 +165,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -466,10 +465,13 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -498,7 +500,7 @@
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>-1050</v>
       </c>
     </row>
@@ -512,7 +514,7 @@
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>900</v>
       </c>
     </row>
@@ -526,7 +528,7 @@
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>600</v>
       </c>
     </row>
@@ -540,7 +542,7 @@
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>-950</v>
       </c>
     </row>
@@ -554,7 +556,7 @@
       <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>-800</v>
       </c>
     </row>
@@ -568,7 +570,7 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>-450</v>
       </c>
     </row>
@@ -582,7 +584,7 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>600</v>
       </c>
     </row>
@@ -596,7 +598,7 @@
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>700</v>
       </c>
     </row>
@@ -610,7 +612,7 @@
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>800</v>
       </c>
     </row>
@@ -624,7 +626,7 @@
       <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>-550</v>
       </c>
     </row>
@@ -638,7 +640,7 @@
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>500</v>
       </c>
     </row>
@@ -652,7 +654,7 @@
       <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>-700</v>
       </c>
     </row>
@@ -666,7 +668,7 @@
       <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>350</v>
       </c>
     </row>
@@ -680,12 +682,12 @@
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -694,7 +696,7 @@
       <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>500</v>
       </c>
     </row>
@@ -708,7 +710,7 @@
       <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>-900</v>
       </c>
     </row>
@@ -722,7 +724,7 @@
       <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>-750</v>
       </c>
     </row>
@@ -736,7 +738,7 @@
       <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>650</v>
       </c>
     </row>
@@ -750,7 +752,7 @@
       <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>750</v>
       </c>
     </row>
@@ -764,7 +766,7 @@
       <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>400</v>
       </c>
     </row>

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -100,7 +100,7 @@
     <t>Axis_1</t>
   </si>
   <si>
-    <t>Line_7 Point_15</t>
+    <t>Line_7</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,7 +763,7 @@
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="6">

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="495" windowWidth="11310" windowHeight="8100"/>
+    <workbookView xWindow="7815" yWindow="180" windowWidth="11310" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Line_7</t>
+  </si>
+  <si>
+    <t>PK_4+50</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,8 +685,8 @@
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="6">
-        <v>450</v>
+      <c r="E15" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -468,7 +468,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +584,7 @@
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="6">

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="180" windowWidth="11310" windowHeight="8100"/>
+    <workbookView xWindow="570" yWindow="1515" windowWidth="11310" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -104,13 +104,19 @@
   </si>
   <si>
     <t>PK_4+50</t>
+  </si>
+  <si>
+    <t>Line_1</t>
+  </si>
+  <si>
+    <t>Line_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +128,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,10 +169,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -169,11 +185,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2 2" xfId="1"/>
+    <cellStyle name="Обычный 2 3" xfId="3"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,7 +486,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,13 +515,14 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4">
         <v>-1050</v>
       </c>
     </row>
@@ -511,13 +530,14 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4">
         <v>900</v>
       </c>
     </row>
@@ -525,13 +545,14 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5"/>
+      <c r="E4" s="4">
         <v>600</v>
       </c>
     </row>
@@ -539,13 +560,14 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4">
         <v>-950</v>
       </c>
     </row>
@@ -553,13 +575,14 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
         <v>-800</v>
       </c>
     </row>
@@ -567,13 +590,14 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
         <v>-450</v>
       </c>
     </row>
@@ -581,13 +605,14 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
         <v>600</v>
       </c>
     </row>
@@ -595,13 +620,14 @@
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
         <v>700</v>
       </c>
     </row>
@@ -609,13 +635,14 @@
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
         <v>800</v>
       </c>
     </row>
@@ -623,13 +650,14 @@
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5"/>
+      <c r="E11" s="4">
         <v>-550</v>
       </c>
     </row>
@@ -637,13 +665,14 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="6">
+      <c r="D12" s="5"/>
+      <c r="E12" s="4">
         <v>500</v>
       </c>
     </row>
@@ -651,13 +680,14 @@
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6">
+      <c r="D13" s="5"/>
+      <c r="E13" s="4">
         <v>-700</v>
       </c>
     </row>
@@ -665,13 +695,14 @@
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4">
         <v>350</v>
       </c>
     </row>
@@ -679,27 +710,29 @@
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>500</v>
       </c>
     </row>
@@ -707,13 +740,14 @@
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4">
         <v>-900</v>
       </c>
     </row>
@@ -721,13 +755,14 @@
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4">
         <v>-750</v>
       </c>
     </row>
@@ -735,13 +770,14 @@
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4">
         <v>650</v>
       </c>
     </row>
@@ -749,13 +785,14 @@
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="4">
         <v>750</v>
       </c>
     </row>
@@ -763,13 +800,14 @@
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="4">
         <v>400</v>
       </c>
     </row>

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1515" windowWidth="11310" windowHeight="8100"/>
+    <workbookView xWindow="390" yWindow="345" windowWidth="8100" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -104,12 +104,6 @@
   </si>
   <si>
     <t>PK_4+50</t>
-  </si>
-  <si>
-    <t>Line_1</t>
-  </si>
-  <si>
-    <t>Line_3</t>
   </si>
 </sst>
 </file>
@@ -486,7 +480,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,12 +555,12 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="4">
         <v>-950</v>
       </c>
@@ -576,12 +570,12 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="4">
         <v>-800</v>
       </c>
@@ -591,12 +585,12 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="4">
         <v>-450</v>
       </c>
@@ -606,12 +600,12 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="4">
         <v>600</v>
       </c>
@@ -621,12 +615,12 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="4">
         <v>700</v>
       </c>
@@ -636,12 +630,12 @@
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="4">
         <v>800</v>
       </c>
@@ -696,12 +690,12 @@
         <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="4">
         <v>350</v>
       </c>
@@ -711,12 +705,12 @@
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
@@ -741,12 +735,12 @@
         <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="4">
         <v>-900</v>
       </c>
@@ -756,12 +750,12 @@
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="4">
         <v>-750</v>
       </c>
@@ -771,12 +765,12 @@
         <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="4">
         <v>650</v>
       </c>
@@ -786,12 +780,12 @@
         <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="4">
         <v>750</v>
       </c>
@@ -801,12 +795,12 @@
         <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="4">
         <v>400</v>
       </c>

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="345" windowWidth="8100" windowHeight="8100"/>
+    <workbookView xWindow="1410" yWindow="3495" windowWidth="10755" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>PK_4+50</t>
+  </si>
+  <si>
+    <t>cs_relative_to</t>
+  </si>
+  <si>
+    <t>CS_1</t>
   </si>
 </sst>
 </file>
@@ -122,6 +128,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -477,18 +485,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,11 +510,14 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -516,11 +528,14 @@
         <v>25</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="4">
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4">
         <v>-1050</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -531,11 +546,14 @@
         <v>25</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -546,11 +564,14 @@
         <v>26</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -561,11 +582,14 @@
         <v>25</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4">
         <v>-950</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -576,11 +600,14 @@
         <v>25</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4">
         <v>-800</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -591,11 +618,14 @@
         <v>25</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4">
         <v>-450</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -606,11 +636,14 @@
         <v>25</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -621,11 +654,14 @@
         <v>25</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -636,11 +672,14 @@
         <v>25</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -651,11 +690,14 @@
         <v>27</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4">
         <v>-550</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -666,11 +708,14 @@
         <v>27</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -681,11 +726,14 @@
         <v>26</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4">
         <v>-700</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -696,11 +744,14 @@
         <v>26</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4">
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -712,10 +763,13 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -726,11 +780,14 @@
       <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -741,11 +798,14 @@
         <v>25</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="4">
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4">
         <v>-900</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -756,11 +816,14 @@
         <v>25</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="4">
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="4">
         <v>-750</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -771,11 +834,14 @@
         <v>25</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="4">
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4">
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -786,11 +852,14 @@
         <v>25</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="4">
+      <c r="E20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="4">
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -801,7 +870,10 @@
         <v>26</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="4">
+      <c r="E21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="4">
         <v>400</v>
       </c>
     </row>

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3495" windowWidth="10755" windowHeight="8100"/>
+    <workbookView xWindow="120" yWindow="510" windowWidth="10755" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +197,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -484,20 +489,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -535,7 +540,7 @@
         <v>-1050</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -553,7 +558,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -571,7 +576,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -589,7 +594,7 @@
         <v>-950</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -607,7 +612,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -625,7 +630,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -643,7 +648,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -661,7 +666,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -679,7 +684,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -697,7 +702,7 @@
         <v>-550</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -715,7 +720,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -733,7 +738,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -751,7 +756,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -769,7 +774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -787,7 +792,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -805,7 +810,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -823,7 +828,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -841,7 +846,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -859,7 +864,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="510" windowWidth="10755" windowHeight="8100"/>
+    <workbookView xWindow="12030" yWindow="570" windowWidth="10755" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,20 +489,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -540,7 +540,7 @@
         <v>-1050</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -558,7 +558,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -576,7 +576,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -594,7 +594,7 @@
         <v>-950</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -612,7 +612,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -630,7 +630,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -648,8 +648,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -666,7 +666,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -684,7 +684,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -702,8 +702,8 @@
         <v>-550</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -720,7 +720,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -738,7 +738,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -756,7 +756,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -774,7 +774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -792,7 +792,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -810,7 +810,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -828,7 +828,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -846,7 +846,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -864,7 +864,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12030" yWindow="570" windowWidth="10755" windowHeight="8100"/>
+    <workbookView xWindow="1185" yWindow="2640" windowWidth="10755" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="2640" windowWidth="10755" windowHeight="6330"/>
+    <workbookView xWindow="510" yWindow="3180" windowWidth="10755" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -188,6 +188,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -782,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="4" t="s">

--- a/station_in_config/Point.xlsx
+++ b/station_in_config/Point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="3180" windowWidth="10755" windowHeight="5775"/>
+    <workbookView xWindow="360" yWindow="675" windowWidth="10755" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
